--- a/biology/Neurosciences/Pío_del_Río_Hortega/Pío_del_Río_Hortega.xlsx
+++ b/biology/Neurosciences/Pío_del_Río_Hortega/Pío_del_Río_Hortega.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%ADo_del_R%C3%ADo_Hortega</t>
+          <t>Pío_del_Río_Hortega</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pío del Río Hortega, né le 5 mai 1882 à Portillo, province de Valladolid en Espagne, et mort le 1er juin 1945 à Buenos Aires est un médecin et chercheur espagnol. Il s'est distingué dans le domaine de l'histologie, notamment celle du système nerveux. Il a collaboré d'abord avec Nicolás Achúcarro, puis avec Santiago Ramón y Cajal. Après Cajal, il est le représentant le plus renommé de l'École histologique espagnole. Il est surtout connu pour sa description de la microglie, dont les cellules portent en son honneur le nom de cellules de Hortega.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%ADo_del_R%C3%ADo_Hortega</t>
+          <t>Pío_del_Río_Hortega</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît à Portillo le 5 mai 1882, quatrième d'une fratrie de quatre enfants, et suit l'école primaire dans cette même ville. Il fait ses études universitaires à la faculté de médecine (es) de l'Université de Valladolid et obtient sa licence de médecine en 1905. Il commence sa carrière professionnelle comme médecin de son village, Portillo, pendant deux ans, mais poursuit ensuite sa vocation de chercheur. Il obtient une aide par la Junta para Ampliación de Estudios e Investigaciones Científicas (es) pour un allongement d'études en 1913, et complète sa formation en Espagne, à Berlin, à Londres et à Paris. Il retourne en Espagne en 1915 pour travailler dans le Laboratoire d'Histologie Normale et Pathologique que fonde la Junta. Là, il travaille avec l'histologue Nicolás Achúcarro, qui sera sa plus grande influence.
 En 1917, il est nommé secrétaire de la Société espagnole de biologie que préside Ramón y Cajal. 
